--- a/Risk.xlsx
+++ b/Risk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio" sheetId="2" r:id="rId1"/>
@@ -287,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>Account Info</t>
   </si>
@@ -424,40 +424,100 @@
     <t>ICMarkets-Demo</t>
   </si>
   <si>
+    <t>Losing</t>
+  </si>
+  <si>
+    <t>Net Long</t>
+  </si>
+  <si>
+    <t>Exposure USD</t>
+  </si>
+  <si>
+    <t>US2000</t>
+  </si>
+  <si>
+    <t>US500</t>
+  </si>
+  <si>
+    <t>Profitable</t>
+  </si>
+  <si>
+    <t>Net long</t>
+  </si>
+  <si>
+    <t>VIX_J1</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>GTC</t>
+  </si>
+  <si>
+    <t>YoLo</t>
+  </si>
+  <si>
     <t>Net Short</t>
+  </si>
+  <si>
+    <t>USDTRY</t>
+  </si>
+  <si>
+    <t>XAGUSD</t>
+  </si>
+  <si>
+    <t>TLT.NAS</t>
+  </si>
+  <si>
+    <t>Heged</t>
+  </si>
+  <si>
+    <t>F.NYSE</t>
+  </si>
+  <si>
+    <t>JP225</t>
+  </si>
+  <si>
+    <t>DAL.NYSE</t>
+  </si>
+  <si>
+    <t>IVZ.NYSE</t>
+  </si>
+  <si>
+    <t>GILD.NAS</t>
+  </si>
+  <si>
+    <t>JPM.NYSE</t>
+  </si>
+  <si>
+    <t>JGB10Y_M1</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>USDMXN</t>
+  </si>
+  <si>
+    <t>Mexican Salsa</t>
+  </si>
+  <si>
+    <t>XAGEUR</t>
+  </si>
+  <si>
+    <t>F*ckall research!</t>
   </si>
   <si>
     <t>USDZAR</t>
   </si>
   <si>
-    <t>Losing</t>
+    <t>This time for Africa!</t>
   </si>
   <si>
-    <t>GE.NYSE</t>
+    <t>13/Apr/21 | 05:30 AM</t>
   </si>
   <si>
-    <t>Profitable</t>
-  </si>
-  <si>
-    <t>Net Long</t>
-  </si>
-  <si>
-    <t>VIX_M0</t>
-  </si>
-  <si>
-    <t>NOKSEK</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>GTC</t>
-  </si>
-  <si>
-    <t>i Dunno</t>
-  </si>
-  <si>
-    <t>Exposure USD</t>
+    <t>11/Apr/21 | 03:15 AM</t>
   </si>
 </sst>
 </file>
@@ -1033,9 +1093,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1081,7 +1139,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1090,11 +1147,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,7 +1163,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1132,7 +1186,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1161,7 +1214,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1175,7 +1227,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,6 +1299,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1338,7 +1410,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -1451,10 +1522,10 @@
                 <c:formatCode>"$"#,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>198.90697285882285</c:v>
+                  <c:v>15406.321625096221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,7 +1558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,7 +1664,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1739,9 +1808,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1765,10 +1832,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101.14697285882283</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,7 +1995,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2073,9 +2139,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2099,10 +2163,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>498.53999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2262,7 +2326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2407,9 +2470,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2433,10 +2494,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.36</c:v>
+                  <c:v>5948.4368445295759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2469,7 +2530,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2592,7 +2652,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2737,9 +2796,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -2763,10 +2820,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.400000000000006</c:v>
+                  <c:v>4626.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2799,7 +2856,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2917,7 +2973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3062,9 +3117,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3088,10 +3141,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1377.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -3242,7 +3294,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3387,9 +3438,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3413,10 +3462,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="&quot;$&quot;#,##0.00">
-                  <c:v>899.13</c:v>
+                  <c:v>948.81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1932.430337027409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7986,8 +8035,8 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7998,10 +8047,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
+      <c r="B1" s="87"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8031,85 +8080,85 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="57">
-        <v>899.13</v>
+      <c r="B5" s="51">
+        <v>948.81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57">
-        <v>894.41</v>
+      <c r="B6" s="51">
+        <v>106.62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="57">
-        <v>4.72</v>
+      <c r="B7" s="51">
+        <v>842.19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="55">
-        <v>190.49359999999999</v>
+      <c r="B8" s="49">
+        <v>1.1266</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="57">
-        <v>903.42</v>
+      <c r="B9" s="51">
+        <v>1006.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="57">
-        <v>-4.29</v>
+      <c r="B10" s="51">
+        <v>-57.69</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="56">
+      <c r="B11" s="50">
         <f>B10/B9</f>
-        <v>-4.7486219034336193E-3</v>
+        <v>-5.7317436661698952E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="51">
         <f>SUM(Positions!H11:H30)</f>
-        <v>198.90697285882285</v>
+        <v>15406.321625096221</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="48" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="4">
         <f>SUM(Positions!I11:I30)</f>
-        <v>0.22122159516290507</v>
+        <v>16.237520288673409</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="87" t="s">
+      <c r="B15" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="79" t="s">
         <v>10</v>
       </c>
     </row>
@@ -8118,11 +8167,11 @@
         <v>35</v>
       </c>
       <c r="B16" s="4">
-        <v>101.14697285882283</v>
+        <v>1000</v>
       </c>
       <c r="C16" s="4">
         <f>B16/$B$5</f>
-        <v>0.11249426985955628</v>
+        <v>1.0539517922450228</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8130,11 +8179,11 @@
         <v>36</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>498.53999999999996</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ref="C17:C21" si="0">B17/$B$5</f>
-        <v>0</v>
+        <v>0.52543712650583363</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8142,11 +8191,11 @@
         <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>29.36</v>
+        <v>5948.4368445295759</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>3.2653787550187406E-2</v>
+        <v>6.2693656733482745</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8154,11 +8203,11 @@
         <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>68.400000000000006</v>
+        <v>4626.8</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>7.6073537753161391E-2</v>
+        <v>4.876424152359272</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8166,11 +8215,11 @@
         <v>39</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>1377.7</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4520293841759679</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8178,11 +8227,11 @@
         <v>40</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>1932.430337027409</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.036688417098691</v>
       </c>
     </row>
   </sheetData>
@@ -8212,8 +8261,8 @@
   </sheetPr>
   <dimension ref="D8:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="C14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8222,7 +8271,7 @@
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="8" max="8" width="10.140625" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
@@ -8241,586 +8290,946 @@
   <sheetData>
     <row r="8" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K9" s="91" t="s">
+      <c r="K9" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="92"/>
-      <c r="M9" s="93" t="s">
+      <c r="L9" s="89"/>
+      <c r="M9" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="94"/>
-      <c r="Q9" s="95" t="s">
+      <c r="N9" s="91"/>
+      <c r="Q9" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="97" t="s">
+      <c r="R9" s="93"/>
+      <c r="S9" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="98"/>
+      <c r="T9" s="95"/>
     </row>
     <row r="10" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="O10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="20" t="s">
+      <c r="P10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="20" t="s">
+      <c r="Q10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="S10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="T10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="28">
-        <v>29.36</v>
-      </c>
-      <c r="G11" s="29">
-        <v>1</v>
-      </c>
-      <c r="H11" s="83">
-        <v>29.36</v>
-      </c>
-      <c r="I11" s="30">
-        <v>3.2653787550187406E-2</v>
-      </c>
-      <c r="J11" s="31">
-        <v>29.4</v>
-      </c>
-      <c r="K11" s="48">
-        <v>899.13</v>
-      </c>
-      <c r="L11" s="33">
-        <v>1</v>
-      </c>
-      <c r="M11" s="32">
-        <v>899.13</v>
-      </c>
-      <c r="N11" s="34">
-        <v>1</v>
-      </c>
-      <c r="O11" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="51">
-        <v>1.3623978201634586E-3</v>
-      </c>
-      <c r="Q11" s="48">
-        <v>0</v>
-      </c>
-      <c r="R11" s="34">
-        <v>0</v>
-      </c>
-      <c r="S11" s="36">
-        <v>0.04</v>
-      </c>
-      <c r="T11" s="34">
-        <v>4.4276194903809971E-5</v>
-      </c>
-      <c r="U11" s="37">
+      <c r="D11" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="26">
+        <v>13.004</v>
+      </c>
+      <c r="G11" s="27">
+        <v>10</v>
+      </c>
+      <c r="H11" s="75">
+        <v>130.04</v>
+      </c>
+      <c r="I11" s="28">
+        <v>0.13705589106354274</v>
+      </c>
+      <c r="J11" s="29">
+        <v>12.393000000000001</v>
+      </c>
+      <c r="K11" s="42">
+        <v>-52</v>
+      </c>
+      <c r="L11" s="30">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="M11" s="104">
+        <v>52</v>
+      </c>
+      <c r="N11" s="31">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="45">
+        <v>-4.6985542909873799E-2</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>-0.03</v>
+      </c>
+      <c r="R11" s="31">
+        <v>-5.7692307692307687E-4</v>
+      </c>
+      <c r="S11" s="33">
+        <v>-6.11</v>
+      </c>
+      <c r="T11" s="31">
+        <v>-6.0705414803775464E-3</v>
+      </c>
+      <c r="U11" s="80">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="38" t="s">
-        <v>50</v>
+      <c r="D12" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F12" s="3">
-        <v>0.97277999999999998</v>
+        <v>66.540000000000006</v>
       </c>
       <c r="G12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="84">
-        <v>101.14697285882283</v>
+        <v>10</v>
+      </c>
+      <c r="H12" s="76">
+        <v>665.40000000000009</v>
       </c>
       <c r="I12" s="4">
-        <v>0.11249426985955628</v>
-      </c>
-      <c r="J12" s="25">
-        <v>0.97450000000000003</v>
-      </c>
-      <c r="K12" s="49">
-        <v>899.13</v>
-      </c>
-      <c r="L12" s="23">
-        <v>1</v>
-      </c>
-      <c r="M12" s="8">
-        <v>899.13</v>
-      </c>
-      <c r="N12" s="9">
-        <v>1</v>
+        <v>0.7012995225598383</v>
+      </c>
+      <c r="J12" s="23">
+        <v>64.73</v>
+      </c>
+      <c r="K12" s="43">
+        <v>-520</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.54805493196741184</v>
+      </c>
+      <c r="M12" s="105">
+        <v>520</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.54805493196741184</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="P12" s="52">
-        <v>1.7681284565883909E-3</v>
-      </c>
-      <c r="Q12" s="49">
-        <v>0</v>
-      </c>
-      <c r="R12" s="9">
-        <v>0</v>
-      </c>
-      <c r="S12" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="T12" s="9">
-        <v>1.9924287706714485E-4</v>
-      </c>
-      <c r="U12" s="39">
+        <v>45</v>
+      </c>
+      <c r="P12" s="46">
+        <v>-2.7201683198076376E-2</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>-0.39</v>
+      </c>
+      <c r="R12" s="8">
+        <v>-7.5000000000000002E-4</v>
+      </c>
+      <c r="S12" s="16">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="T12" s="8">
+        <v>-1.7983109786388476E-2</v>
+      </c>
+      <c r="U12" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30719</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="76">
+        <v>1400.9412880688089</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1.476524581390172</v>
+      </c>
+      <c r="J13" s="20">
+        <v>29829</v>
+      </c>
+      <c r="K13" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L13" s="21">
+        <v>1</v>
+      </c>
+      <c r="M13" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3">
-        <v>6.84</v>
-      </c>
-      <c r="G13" s="1">
-        <v>10</v>
-      </c>
-      <c r="H13" s="84">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="I13" s="4">
-        <v>7.6073537753161391E-2</v>
-      </c>
-      <c r="J13" s="22">
-        <v>7.29</v>
-      </c>
-      <c r="K13" s="49">
-        <v>899.13</v>
-      </c>
-      <c r="L13" s="23">
-        <v>1</v>
-      </c>
-      <c r="M13" s="88">
-        <v>14</v>
-      </c>
-      <c r="N13" s="9">
-        <v>1.5570607142459933E-2</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="52">
-        <v>6.578947368421055E-2</v>
-      </c>
-      <c r="Q13" s="49">
-        <v>-0.01</v>
-      </c>
-      <c r="R13" s="9">
-        <v>-7.1428571428571429E-4</v>
-      </c>
-      <c r="S13" s="18">
-        <v>-4.5</v>
-      </c>
-      <c r="T13" s="9">
-        <v>-4.9810719266786211E-3</v>
-      </c>
-      <c r="U13" s="39">
-        <v>1</v>
+      <c r="P13" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="43">
+        <v>-0.84000000000000008</v>
+      </c>
+      <c r="R13" s="8">
+        <v>-8.8531950548581919E-4</v>
+      </c>
+      <c r="S13" s="16">
+        <v>-40.96</v>
+      </c>
+      <c r="T13" s="8">
+        <v>-4.0695479384003974E-2</v>
+      </c>
+      <c r="U13" s="81">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D14" s="38"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="39"/>
+      <c r="D14" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3">
+        <v>152.91500000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20</v>
+      </c>
+      <c r="H14" s="76">
+        <v>3058.3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3.2233007662229531</v>
+      </c>
+      <c r="J14" s="20">
+        <v>155.29</v>
+      </c>
+      <c r="K14" s="43">
+        <v>-78</v>
+      </c>
+      <c r="L14" s="21">
+        <v>8.220823979511177E-2</v>
+      </c>
+      <c r="M14" s="105">
+        <v>78</v>
+      </c>
+      <c r="N14" s="8">
+        <v>8.220823979511177E-2</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>-1.32</v>
+      </c>
+      <c r="R14" s="8">
+        <v>-1.6923076923076923E-2</v>
+      </c>
+      <c r="S14" s="16">
+        <v>47.5</v>
+      </c>
+      <c r="T14" s="8">
+        <v>4.7193243914555393E-2</v>
+      </c>
+      <c r="U14" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="38"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="39"/>
+      <c r="D15" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="3">
+        <v>137.77000000000001</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="76">
+        <v>1377.7</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1.4520293841759679</v>
+      </c>
+      <c r="J15" s="20">
+        <v>137.47</v>
+      </c>
+      <c r="K15" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L15" s="21">
+        <v>1</v>
+      </c>
+      <c r="M15" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="46">
+        <v>-2.1775422806126978E-3</v>
+      </c>
+      <c r="Q15" s="43">
+        <v>-0.2</v>
+      </c>
+      <c r="R15" s="8">
+        <v>-2.1079035844900456E-4</v>
+      </c>
+      <c r="S15" s="16">
+        <v>-3</v>
+      </c>
+      <c r="T15" s="8">
+        <v>-2.9806259314456036E-3</v>
+      </c>
+      <c r="U15" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="38"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="39"/>
+      <c r="D16" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4015.3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="76">
+        <v>11.220000000000027</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1.1825339108989185E-2</v>
+      </c>
+      <c r="J16" s="20">
+        <v>4108.3999999999996</v>
+      </c>
+      <c r="K16" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P16" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>-0.46</v>
+      </c>
+      <c r="R16" s="8">
+        <v>-4.8481782443271049E-4</v>
+      </c>
+      <c r="S16" s="16">
+        <v>11.19</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1.1117734724292101E-2</v>
+      </c>
+      <c r="U16" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D17" s="38"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="39"/>
+      <c r="D17" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="3">
+        <v>23.77</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5</v>
+      </c>
+      <c r="H17" s="76">
+        <v>118.85</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.12526217050832095</v>
+      </c>
+      <c r="J17" s="20">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="K17" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>-28.400000000000002</v>
+      </c>
+      <c r="T17" s="8">
+        <v>-2.8216592151018384E-2</v>
+      </c>
+      <c r="U17" s="81">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D18" s="38"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="39"/>
+      <c r="D18" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="3">
+        <v>151.33000000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1400</v>
+      </c>
+      <c r="H18" s="76">
+        <v>1932.430337027409</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.036688417098691</v>
+      </c>
+      <c r="J18" s="20">
+        <v>151.22999999999999</v>
+      </c>
+      <c r="K18" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="43">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="16">
+        <v>-1.2700000000000002</v>
+      </c>
+      <c r="T18" s="8">
+        <v>-1.2617983109786391E-3</v>
+      </c>
+      <c r="U18" s="81">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="38"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="39"/>
+      <c r="D19" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2219.92</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="76">
+        <v>4439.84</v>
+      </c>
+      <c r="I19" s="4">
+        <v>4.6793773252811421</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2230.63</v>
+      </c>
+      <c r="K19" s="43">
+        <v>-948.81</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="105">
+        <v>948.81</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="R19" s="8">
+        <v>-5.1116661923883604E-3</v>
+      </c>
+      <c r="S19" s="16">
+        <v>21.42</v>
+      </c>
+      <c r="T19" s="8">
+        <v>2.1281669150521612E-2</v>
+      </c>
+      <c r="U19" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="38"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="39"/>
+      <c r="D20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3">
+        <v>24.927</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20</v>
+      </c>
+      <c r="H20" s="76">
+        <v>498.53999999999996</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.52543712650583363</v>
+      </c>
+      <c r="J20" s="20">
+        <v>25.234000000000002</v>
+      </c>
+      <c r="K20" s="43">
+        <v>-7.8</v>
+      </c>
+      <c r="L20" s="21">
+        <v>8.2208239795111774E-3</v>
+      </c>
+      <c r="M20" s="105">
+        <v>78</v>
+      </c>
+      <c r="N20" s="8">
+        <v>8.220823979511177E-2</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="46">
+        <v>-1.2315962610823692E-2</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>0</v>
+      </c>
+      <c r="R20" s="8">
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <v>-6.1400000000000006</v>
+      </c>
+      <c r="T20" s="8">
+        <v>-6.1003477396920028E-3</v>
+      </c>
+      <c r="U20" s="81">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D21" s="38"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="39"/>
+      <c r="D21" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="3">
+        <v>51.052</v>
+      </c>
+      <c r="G21" s="1">
+        <v>10</v>
+      </c>
+      <c r="H21" s="76">
+        <v>510.52</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.53806346897692903</v>
+      </c>
+      <c r="J21" s="20">
+        <v>49.052999999999997</v>
+      </c>
+      <c r="K21" s="43">
+        <v>-52</v>
+      </c>
+      <c r="L21" s="21">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="M21" s="105">
+        <v>52</v>
+      </c>
+      <c r="N21" s="8">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21" s="46">
+        <v>-3.9156154509127995E-2</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>-0.12</v>
+      </c>
+      <c r="R21" s="8">
+        <v>-2.3076923076923075E-3</v>
+      </c>
+      <c r="S21" s="16">
+        <v>-19.989999999999998</v>
+      </c>
+      <c r="T21" s="8">
+        <v>-1.9860904123199203E-2</v>
+      </c>
+      <c r="U21" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D22" s="38"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="39"/>
+      <c r="D22" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="3">
+        <v>26.254000000000001</v>
+      </c>
+      <c r="G22" s="1">
+        <v>10</v>
+      </c>
+      <c r="H22" s="76">
+        <v>262.54000000000002</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.27670450353600828</v>
+      </c>
+      <c r="J22" s="20">
+        <v>26.131</v>
+      </c>
+      <c r="K22" s="43">
+        <v>-52</v>
+      </c>
+      <c r="L22" s="21">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="M22" s="105">
+        <v>52</v>
+      </c>
+      <c r="N22" s="8">
+        <v>5.4805493196741183E-2</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="46">
+        <v>-4.6850003808943819E-3</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>-0.08</v>
+      </c>
+      <c r="R22" s="8">
+        <v>-1.5384615384615385E-3</v>
+      </c>
+      <c r="S22" s="16">
+        <v>-1.23</v>
+      </c>
+      <c r="T22" s="8">
+        <v>-1.2220566318926975E-3</v>
+      </c>
+      <c r="U22" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="38"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="39"/>
+      <c r="D23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8.1252600000000008</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="76">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1.0539517922450228</v>
+      </c>
+      <c r="J23" s="20">
+        <v>8.16554</v>
+      </c>
+      <c r="K23" s="43">
+        <v>-11.84</v>
+      </c>
+      <c r="L23" s="21">
+        <v>1.247878922018107E-2</v>
+      </c>
+      <c r="M23" s="105">
+        <v>19.13</v>
+      </c>
+      <c r="N23" s="8">
+        <v>2.0162097785647284E-2</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23" s="46">
+        <v>-4.9573798253839509E-3</v>
+      </c>
+      <c r="Q23" s="43">
+        <v>0.06</v>
+      </c>
+      <c r="R23" s="8">
+        <v>3.1364349189754314E-3</v>
+      </c>
+      <c r="S23" s="16">
+        <v>-4.93</v>
+      </c>
+      <c r="T23" s="8">
+        <v>-4.8981619473422748E-3</v>
+      </c>
+      <c r="U23" s="81">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="38"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="5"/>
       <c r="F24" s="3"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="84"/>
+      <c r="H24" s="76"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="9"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="8"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="52"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="39"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="81"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D25" s="38"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="5"/>
       <c r="F25" s="3"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="84"/>
+      <c r="H25" s="76"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="9"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="8"/>
       <c r="O25" s="6"/>
-      <c r="P25" s="52"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="39"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="81"/>
     </row>
     <row r="26" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D26" s="38"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="84"/>
+      <c r="H26" s="76"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="9"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="8"/>
       <c r="O26" s="6"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="39"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="81"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="38"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="5"/>
       <c r="F27" s="3"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="84"/>
+      <c r="H27" s="76"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="9"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="8"/>
       <c r="O27" s="6"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="39"/>
+      <c r="P27" s="46"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="81"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="38"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="5"/>
       <c r="F28" s="3"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="84"/>
+      <c r="H28" s="76"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="9"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="8"/>
       <c r="O28" s="6"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="39"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="81"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D29" s="38"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="5"/>
       <c r="F29" s="3"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="84"/>
+      <c r="H29" s="76"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="9"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="8"/>
       <c r="O29" s="6"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="39"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="81"/>
     </row>
     <row r="30" spans="4:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="19"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="47"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="106"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="82"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
       <c r="P31" s="2"/>
@@ -8836,15 +9245,15 @@
     <mergeCell ref="S9:T9"/>
   </mergeCells>
   <conditionalFormatting sqref="O11:O30">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Profitable">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Profitable">
       <formula>NOT(ISERROR(SEARCH("Profitable",O11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="Losing">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="Losing">
       <formula>NOT(ISERROR(SEARCH("Losing",O11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I18">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8856,7 +9265,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -8865,6 +9274,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{E798372D-3F83-4605-8FE6-BCAE3CB3370F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11:I30">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8ABBE4E4-3695-4C79-8FC5-D87A0FA966E4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8894,6 +9317,19 @@
           </x14:cfRule>
           <xm:sqref>I11:I18</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8ABBE4E4-3695-4C79-8FC5-D87A0FA966E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I11:I30</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -8907,15 +9343,17 @@
   </sheetPr>
   <dimension ref="D8:S41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView showGridLines="0" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="C15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="83"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="10.28515625" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
@@ -8927,212 +9365,372 @@
   <sheetData>
     <row r="8" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J9" s="99" t="s">
+      <c r="J9" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="100"/>
-      <c r="L9" s="101" t="s">
+      <c r="K9" s="97"/>
+      <c r="L9" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="103" t="s">
+      <c r="M9" s="99"/>
+      <c r="N9" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="104"/>
-      <c r="P9" s="105" t="s">
+      <c r="O9" s="101"/>
+      <c r="P9" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="106"/>
+      <c r="Q9" s="103"/>
     </row>
     <row r="10" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="77" t="s">
+      <c r="R10" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="S10" s="60" t="s">
+      <c r="S10" s="54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D11" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="59">
-        <v>17.3</v>
-      </c>
-      <c r="G11" s="59">
+      <c r="D11" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="53">
+        <v>18</v>
+      </c>
+      <c r="G11" s="53">
         <v>1000</v>
       </c>
-      <c r="H11" s="59">
+      <c r="H11" s="53">
         <v>1000</v>
       </c>
-      <c r="I11" s="78">
-        <v>1.118055477912814</v>
-      </c>
-      <c r="J11" s="63">
-        <v>-899.13</v>
-      </c>
-      <c r="K11" s="64">
-        <v>-1</v>
-      </c>
-      <c r="L11" s="67">
-        <v>899.13</v>
-      </c>
-      <c r="M11" s="68">
-        <v>1</v>
-      </c>
-      <c r="N11" s="67">
-        <v>0.10706278671372893</v>
-      </c>
-      <c r="O11" s="72">
-        <v>1.1907375653546087E-4</v>
-      </c>
-      <c r="P11" s="67">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="64">
-        <v>1.1180554779128141E-2</v>
-      </c>
-      <c r="R11" s="82" t="s">
+      <c r="I11" s="84">
+        <v>9.3791033577190017</v>
+      </c>
+      <c r="J11" s="56">
+        <v>-52.63</v>
+      </c>
+      <c r="K11" s="57">
+        <v>-5.5469482825855551E-2</v>
+      </c>
+      <c r="L11" s="60">
+        <v>58.82</v>
+      </c>
+      <c r="M11" s="61">
+        <v>6.1993444419852238E-2</v>
+      </c>
+      <c r="N11" s="60">
+        <v>1.4119432445434123E-2</v>
+      </c>
+      <c r="O11" s="65">
+        <v>2.4004475425763554E-4</v>
+      </c>
+      <c r="P11" s="60">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>1.8758206715438003E-2</v>
+      </c>
+      <c r="R11" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="79" t="s">
-        <v>55</v>
+      <c r="S11" s="71" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="80"/>
+      <c r="D12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1">
+        <v>238.09200000000001</v>
+      </c>
+      <c r="I12" s="85">
+        <v>2.2330894766460325</v>
+      </c>
+      <c r="J12" s="58">
+        <v>-948.81</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="43">
+        <v>948.81</v>
+      </c>
+      <c r="M12" s="62">
+        <v>1</v>
+      </c>
+      <c r="N12" s="66">
+        <v>2.1428280000000003E-3</v>
+      </c>
+      <c r="O12" s="67">
+        <v>2.2584374110728179E-6</v>
+      </c>
+      <c r="P12" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>4.6895516788595009E-3</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" s="72" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="80"/>
+      <c r="D13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1">
+        <v>13.11</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>131.1</v>
+      </c>
+      <c r="I13" s="85">
+        <v>1.2296004501969611</v>
+      </c>
+      <c r="J13" s="58">
+        <v>-948.81</v>
+      </c>
+      <c r="K13" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L13" s="43">
+        <v>948.81</v>
+      </c>
+      <c r="M13" s="62">
+        <v>1</v>
+      </c>
+      <c r="N13" s="66">
+        <v>-9.3745479452054803E-3</v>
+      </c>
+      <c r="O13" s="67">
+        <v>-9.8803216083362116E-6</v>
+      </c>
+      <c r="P13" s="43">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6.1526918026636658E-2</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="S13" s="72" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="80"/>
+      <c r="D14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>178.56900000000002</v>
+      </c>
+      <c r="I14" s="85">
+        <v>1.6748171074845246</v>
+      </c>
+      <c r="J14" s="58">
+        <v>-948.81</v>
+      </c>
+      <c r="K14" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L14" s="43">
+        <v>948.81</v>
+      </c>
+      <c r="M14" s="62">
+        <v>1</v>
+      </c>
+      <c r="N14" s="66">
+        <v>2.1428280000000003E-3</v>
+      </c>
+      <c r="O14" s="67">
+        <v>2.2584374110728179E-6</v>
+      </c>
+      <c r="P14" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>4.6895516788595009E-3</v>
+      </c>
+      <c r="R14" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="72" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="80"/>
+      <c r="D15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="85">
+        <v>9.3791033577190017</v>
+      </c>
+      <c r="J15" s="58">
+        <v>-71.430000000000007</v>
+      </c>
+      <c r="K15" s="8">
+        <v>-7.528377652006199E-2</v>
+      </c>
+      <c r="L15" s="43">
+        <v>62.5</v>
+      </c>
+      <c r="M15" s="62">
+        <v>6.5871987015313924E-2</v>
+      </c>
+      <c r="N15" s="66">
+        <v>-0.20405762367325606</v>
+      </c>
+      <c r="O15" s="67">
+        <v>-3.2649219787720968E-3</v>
+      </c>
+      <c r="P15" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>1.8758206715438003E-2</v>
+      </c>
+      <c r="R15" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="S15" s="72" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="81"/>
-      <c r="S16" s="80"/>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="85">
+        <v>9.3791033577190017</v>
+      </c>
+      <c r="J16" s="58">
+        <v>-948.81</v>
+      </c>
+      <c r="K16" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L16" s="43">
+        <v>948.81</v>
+      </c>
+      <c r="M16" s="62">
+        <v>1</v>
+      </c>
+      <c r="N16" s="66">
+        <v>-0.16618973700263348</v>
+      </c>
+      <c r="O16" s="67">
+        <v>-1.7515597116665453E-4</v>
+      </c>
+      <c r="P16" s="43">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>1.8758206715438003E-2</v>
+      </c>
+      <c r="R16" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="72" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D17" s="7"/>
@@ -9140,17 +9738,17 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="80"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="72"/>
     </row>
     <row r="18" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D18" s="7"/>
@@ -9158,17 +9756,17 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="80"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="72"/>
     </row>
     <row r="19" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D19" s="7"/>
@@ -9176,17 +9774,17 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="80"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="66"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="72"/>
     </row>
     <row r="20" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D20" s="7"/>
@@ -9194,17 +9792,17 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="80"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="66"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="72"/>
     </row>
     <row r="21" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D21" s="7"/>
@@ -9212,17 +9810,17 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="80"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="66"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="72"/>
     </row>
     <row r="22" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
@@ -9230,17 +9828,17 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="80"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="72"/>
     </row>
     <row r="23" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
@@ -9248,17 +9846,17 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="81"/>
-      <c r="S23" s="80"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="72"/>
     </row>
     <row r="24" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
@@ -9266,17 +9864,17 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="80"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="66"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="72"/>
     </row>
     <row r="25" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
@@ -9284,17 +9882,17 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="80"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="72"/>
     </row>
     <row r="26" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
@@ -9302,17 +9900,17 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="81"/>
-      <c r="S26" s="80"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="72"/>
     </row>
     <row r="27" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D27" s="7"/>
@@ -9320,17 +9918,17 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="80"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="67"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72"/>
     </row>
     <row r="28" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D28" s="7"/>
@@ -9338,17 +9936,17 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="81"/>
-      <c r="S28" s="80"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="67"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="72"/>
     </row>
     <row r="29" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D29" s="7"/>
@@ -9356,17 +9954,17 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="81"/>
-      <c r="S29" s="80"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="72"/>
     </row>
     <row r="30" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D30" s="7"/>
@@ -9374,17 +9972,17 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="81"/>
-      <c r="S30" s="80"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="72"/>
     </row>
     <row r="31" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
@@ -9392,17 +9990,17 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="81"/>
-      <c r="S31" s="80"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="72"/>
     </row>
     <row r="32" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D32" s="7"/>
@@ -9410,17 +10008,17 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="61"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="81"/>
-      <c r="S32" s="80"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="58"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="72"/>
     </row>
     <row r="33" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D33" s="7"/>
@@ -9428,17 +10026,17 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="80"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="72"/>
     </row>
     <row r="34" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D34" s="7"/>
@@ -9446,17 +10044,17 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="61"/>
-      <c r="J34" s="65"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="81"/>
-      <c r="S34" s="80"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="67"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="72"/>
     </row>
     <row r="35" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D35" s="7"/>
@@ -9464,17 +10062,17 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="69"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="81"/>
-      <c r="S35" s="80"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="72"/>
     </row>
     <row r="36" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D36" s="7"/>
@@ -9482,17 +10080,17 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="61"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="81"/>
-      <c r="S36" s="80"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="58"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="67"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="72"/>
     </row>
     <row r="37" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D37" s="7"/>
@@ -9500,17 +10098,17 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="81"/>
-      <c r="S37" s="80"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="67"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="72"/>
     </row>
     <row r="38" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D38" s="7"/>
@@ -9518,17 +10116,17 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="69"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="81"/>
-      <c r="S38" s="80"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="58"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="72"/>
     </row>
     <row r="39" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D39" s="7"/>
@@ -9536,17 +10134,17 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="81"/>
-      <c r="S39" s="80"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="58"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="67"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="72"/>
     </row>
     <row r="40" spans="4:19" x14ac:dyDescent="0.25">
       <c r="D40" s="7"/>
@@ -9554,17 +10152,17 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="65"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="81"/>
-      <c r="S40" s="80"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="58"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="72"/>
     </row>
     <row r="41" spans="4:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="7"/>
@@ -9572,17 +10170,17 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="50"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="50"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="81"/>
-      <c r="S41" s="80"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
